--- a/biology/Zoologie/Ambulyx_obliterata/Ambulyx_obliterata.xlsx
+++ b/biology/Zoologie/Ambulyx_obliterata/Ambulyx_obliterata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ambulyx obliterata est une espèce de lépidoptères de la famille des Sphingidae, sous-famille des Smerinthinae, tribu des Ambulycini, et du genre Ambulyx.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure est de 100-110 mm. L'espèce est très semblable à Ambulyx  liturata.
 			Face dorsale du mâle (coll. MHNT)
@@ -544,7 +558,9 @@
           <t>Distribution  et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Distribution
 L'espèce est connue à Sumatra, en Malaisie (péninsulaire, Sarawak) et Bornéo.</t>
@@ -575,12 +591,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Ambulyx obliterata a été décrite par l'entomologiste britannique Lionel Walter Rothschild en 1920, sous le nom d'une sous-espèce Ambulyx liturata obliterata[1].
-Synonymie
-Ambulyx liturata obliterata Rothschild, 1920
-Oxyambulyx macromaculata Gehlen, 1940[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce Ambulyx obliterata a été décrite par l'entomologiste britannique Lionel Walter Rothschild en 1920, sous le nom d'une sous-espèce Ambulyx liturata obliterata.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ambulyx_obliterata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ambulyx_obliterata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ambulyx liturata obliterata Rothschild, 1920
+Oxyambulyx macromaculata Gehlen, 1940
 Oxyambulyx obliterata Rothschild; Diehl, 1980</t>
         </is>
       </c>
